--- a/apiTest/TestDataSheets/APITestData.xlsx
+++ b/apiTest/TestDataSheets/APITestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B472239-0161-44FB-A619-3C09F76FADC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881563C-AC4C-46D9-BD6D-0F3C71856794}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CategoryID</t>
   </si>
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,29 +470,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2">
-        <v>6328</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/apiTest/TestDataSheets/APITestData.xlsx
+++ b/apiTest/TestDataSheets/APITestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881563C-AC4C-46D9-BD6D-0F3C71856794}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC66FB2-5AA1-4052-95FD-B0C27CD41B14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APITestData" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
